--- a/dist/data.xlsx
+++ b/dist/data.xlsx
@@ -127,39 +127,12 @@
     <t>ВКОПв 21-12</t>
   </si>
   <si>
-    <t>radial</t>
-  </si>
-  <si>
     <t>ВР 80-75</t>
   </si>
   <si>
     <t>ВР 280-46</t>
   </si>
   <si>
-    <t>roofUp</t>
-  </si>
-  <si>
-    <t>roofSide</t>
-  </si>
-  <si>
-    <t>vkk</t>
-  </si>
-  <si>
-    <t>vkp</t>
-  </si>
-  <si>
-    <t>dust</t>
-  </si>
-  <si>
-    <t>axial</t>
-  </si>
-  <si>
-    <t>roofAxial</t>
-  </si>
-  <si>
-    <t>tdm</t>
-  </si>
-  <si>
     <t>all</t>
   </si>
   <si>
@@ -170,6 +143,33 @@
   </si>
   <si>
     <t>id</t>
+  </si>
+  <si>
+    <t>Радиальный</t>
+  </si>
+  <si>
+    <t>Крышный вверх</t>
+  </si>
+  <si>
+    <t>Крышный в стороны</t>
+  </si>
+  <si>
+    <t>Канальный круглый</t>
+  </si>
+  <si>
+    <t>Канальный прямоугольный</t>
+  </si>
+  <si>
+    <t>Пылевой</t>
+  </si>
+  <si>
+    <t>Осевой</t>
+  </si>
+  <si>
+    <t>Крышный осевой</t>
+  </si>
+  <si>
+    <t>Тягодутьевая машина</t>
   </si>
 </sst>
 </file>
@@ -212,11 +212,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -522,7 +525,7 @@
   <dimension ref="A1:G39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -536,13 +539,13 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -553,7 +556,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -561,10 +564,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C3" s="2" t="s">
         <v>37</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>43</v>
       </c>
       <c r="G3" t="s">
         <v>1</v>
@@ -575,10 +578,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -588,8 +591,8 @@
       <c r="B5" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>37</v>
+      <c r="C5" s="3" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -599,8 +602,8 @@
       <c r="B6" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>37</v>
+      <c r="C6" s="3" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -610,8 +613,8 @@
       <c r="B7" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>37</v>
+      <c r="C7" s="3" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -621,8 +624,8 @@
       <c r="B8" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>37</v>
+      <c r="C8" s="3" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -632,8 +635,8 @@
       <c r="B9" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>37</v>
+      <c r="C9" s="3" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -643,8 +646,8 @@
       <c r="B10" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>37</v>
+      <c r="C10" s="3" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -654,8 +657,8 @@
       <c r="B11" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>37</v>
+      <c r="C11" s="3" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -665,8 +668,8 @@
       <c r="B12" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>37</v>
+      <c r="C12" s="3" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -676,8 +679,8 @@
       <c r="B13" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>37</v>
+      <c r="C13" s="3" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -687,8 +690,8 @@
       <c r="B14" t="s">
         <v>23</v>
       </c>
-      <c r="C14" t="s">
-        <v>40</v>
+      <c r="C14" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -698,8 +701,8 @@
       <c r="B15" t="s">
         <v>22</v>
       </c>
-      <c r="C15" t="s">
-        <v>40</v>
+      <c r="C15" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -709,8 +712,8 @@
       <c r="B16" t="s">
         <v>21</v>
       </c>
-      <c r="C16" t="s">
-        <v>40</v>
+      <c r="C16" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -720,8 +723,8 @@
       <c r="B17" t="s">
         <v>20</v>
       </c>
-      <c r="C17" t="s">
-        <v>40</v>
+      <c r="C17" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -731,8 +734,8 @@
       <c r="B18" t="s">
         <v>19</v>
       </c>
-      <c r="C18" t="s">
-        <v>40</v>
+      <c r="C18" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -742,8 +745,8 @@
       <c r="B19" t="s">
         <v>18</v>
       </c>
-      <c r="C19" t="s">
-        <v>40</v>
+      <c r="C19" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -753,8 +756,8 @@
       <c r="B20" t="s">
         <v>17</v>
       </c>
-      <c r="C20" t="s">
-        <v>40</v>
+      <c r="C20" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -764,8 +767,8 @@
       <c r="B21" t="s">
         <v>16</v>
       </c>
-      <c r="C21" t="s">
-        <v>40</v>
+      <c r="C21" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -775,8 +778,8 @@
       <c r="B22" t="s">
         <v>15</v>
       </c>
-      <c r="C22" t="s">
-        <v>40</v>
+      <c r="C22" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -787,7 +790,7 @@
         <v>3</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -798,7 +801,7 @@
         <v>2</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -809,7 +812,7 @@
         <v>24</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -820,7 +823,7 @@
         <v>27</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -831,7 +834,7 @@
         <v>26</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -842,7 +845,7 @@
         <v>25</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -853,7 +856,7 @@
         <v>28</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -864,7 +867,7 @@
         <v>29</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -875,7 +878,7 @@
         <v>30</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -886,7 +889,7 @@
         <v>31</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -897,7 +900,7 @@
         <v>32</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -908,7 +911,7 @@
         <v>33</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -919,7 +922,7 @@
         <v>34</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -930,7 +933,7 @@
         <v>35</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -941,7 +944,7 @@
         <v>36</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -952,7 +955,7 @@
         <v>9</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -963,7 +966,7 @@
         <v>8</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
